--- a/Momo-FillNonX.xlsx
+++ b/Momo-FillNonX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F73C92-9BF0-42AF-87CF-03693EE19032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD4AC4-4A24-417F-91DD-CD297ECEBF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7670ABE3-302C-455B-BF20-B006F3FAE6C8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="8">
   <si>
     <t>х</t>
   </si>
@@ -77,12 +77,18 @@
   <si>
     <t>https://www.youtube.com/watch?v=JUgo5mG2nZc</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +110,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +135,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,11 +168,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,8 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -230,6 +254,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F686E6AC-4FFA-426E-B302-A19024E1033E}" name="Table2" displayName="Table2" ref="Y13:Z93" totalsRowShown="0">
+  <autoFilter ref="Y13:Z93" xr:uid="{F686E6AC-4FFA-426E-B302-A19024E1033E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y14:Z93">
+    <sortCondition ref="Z13:Z93"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{954418DF-A5CE-4024-B4B8-9F185084C32E}" name="M"/>
+    <tableColumn id="2" xr3:uid="{3CE1F2CA-3455-45D6-BE41-1C6772E4DE3B}" name="N"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5EEAB9-E28B-4013-B5B2-38620AA84DB0}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:AM117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AF29:AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,12 +599,20 @@
     <col min="4" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Y13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -627,8 +673,48 @@
       <c r="W14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="5" cm="1">
+        <f t="array" ref="AD14:AM21">_xlfn.WRAPROWS(AB14:AB93,10)</f>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="5" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,8 +775,47 @@
       <c r="W15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>11</v>
+      </c>
+      <c r="AJ15" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AK15" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="5" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -751,8 +876,47 @@
       <c r="W16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>13</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>15</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>16</v>
+      </c>
+      <c r="AH16" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>17</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>18</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>19</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>20</v>
+      </c>
+      <c r="AM16" s="5" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>21</v>
       </c>
@@ -813,8 +977,47 @@
       <c r="W17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>21</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>22</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>23</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>24</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AJ17" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AK17" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AL17" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AM17" s="5" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -873,8 +1076,47 @@
       <c r="W18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AE18" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AF18" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>26</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>27</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>28</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>29</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>31</v>
+      </c>
+      <c r="AM18" s="5" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>32</v>
       </c>
@@ -935,8 +1177,47 @@
       <c r="W19" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>32</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>33</v>
+      </c>
+      <c r="AF19" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>35</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>36</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>37</v>
+      </c>
+      <c r="AK19" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>38</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>40</v>
       </c>
@@ -997,8 +1278,47 @@
       <c r="W20" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>41</v>
+      </c>
+      <c r="AF20" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>42</v>
+      </c>
+      <c r="AH20" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>43</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>44</v>
+      </c>
+      <c r="AK20" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>47</v>
       </c>
@@ -1059,8 +1379,80 @@
       <c r="W21" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>47</v>
+      </c>
+      <c r="AE21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AF21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AG21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AH21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AI21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AJ21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AK21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AL21" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>8</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="Y23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>9</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="Y24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N25" s="4" cm="1">
         <f t="array" ref="N25:W32">IF(N14:W21="",_xlfn.SCAN(0,N14:W21="",_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.a+_xlpm.b)),"X")</f>
         <v>1</v>
@@ -1092,8 +1484,17 @@
       <c r="W25" s="4" t="str">
         <v>X</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>9</v>
+      </c>
+      <c r="Z25">
+        <v>11</v>
+      </c>
+      <c r="AB25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N26" s="4" t="str">
         <v>X</v>
       </c>
@@ -1124,8 +1525,17 @@
       <c r="W26" s="4" t="str">
         <v>X</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N27" s="4">
         <v>13</v>
       </c>
@@ -1156,8 +1566,17 @@
       <c r="W27" s="4" t="str">
         <v>X</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>13</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N28" s="4">
         <v>21</v>
       </c>
@@ -1188,8 +1607,17 @@
       <c r="W28" s="4" t="str">
         <v>X</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>14</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N29" s="4" t="str">
         <v>X</v>
       </c>
@@ -1220,8 +1648,17 @@
       <c r="W29" s="4" t="str">
         <v>X</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>11</v>
+      </c>
+      <c r="Z29">
+        <v>15</v>
+      </c>
+      <c r="AB29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N30" s="4">
         <v>32</v>
       </c>
@@ -1252,8 +1689,17 @@
       <c r="W30" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y30" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>16</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N31" s="4">
         <v>40</v>
       </c>
@@ -1284,8 +1730,17 @@
       <c r="W31" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Y31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
       <c r="N32" s="4">
         <v>47</v>
       </c>
@@ -1314,6 +1769,975 @@
         <v>X</v>
       </c>
       <c r="W32" s="4">
+        <v>48</v>
+      </c>
+      <c r="Y32">
+        <v>12</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AB32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="Y33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>13</v>
+      </c>
+      <c r="Z34">
+        <v>20</v>
+      </c>
+      <c r="AB34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <v>14</v>
+      </c>
+      <c r="Z35">
+        <v>21</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <v>15</v>
+      </c>
+      <c r="Z36">
+        <v>22</v>
+      </c>
+      <c r="AB36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <v>16</v>
+      </c>
+      <c r="Z37">
+        <v>23</v>
+      </c>
+      <c r="AB37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O38" cm="1">
+        <f t="array" ref="O38:O117">_xlfn.TOCOL(_xlfn.ANCHORARRAY(N25))</f>
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>24</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>17</v>
+      </c>
+      <c r="Z39">
+        <v>25</v>
+      </c>
+      <c r="AB39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>26</v>
+      </c>
+      <c r="AB40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>27</v>
+      </c>
+      <c r="AB41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O42" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y42">
+        <v>20</v>
+      </c>
+      <c r="Z42">
+        <v>28</v>
+      </c>
+      <c r="AB42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>29</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>21</v>
+      </c>
+      <c r="Z44">
+        <v>30</v>
+      </c>
+      <c r="AB44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="Y45">
+        <v>22</v>
+      </c>
+      <c r="Z45">
+        <v>31</v>
+      </c>
+      <c r="AB45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>23</v>
+      </c>
+      <c r="Z46">
+        <v>32</v>
+      </c>
+      <c r="AB46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O47" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y47">
+        <v>24</v>
+      </c>
+      <c r="Z47">
+        <v>33</v>
+      </c>
+      <c r="AB47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O48" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y48">
+        <v>25</v>
+      </c>
+      <c r="Z48">
+        <v>34</v>
+      </c>
+      <c r="AB48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O50" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O52" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>11</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O54" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O55" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>42</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O57" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y57">
+        <v>26</v>
+      </c>
+      <c r="Z57">
+        <v>43</v>
+      </c>
+      <c r="AB57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <v>13</v>
+      </c>
+      <c r="Y58">
+        <v>27</v>
+      </c>
+      <c r="Z58">
+        <v>44</v>
+      </c>
+      <c r="AB58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <v>14</v>
+      </c>
+      <c r="Y59">
+        <v>28</v>
+      </c>
+      <c r="Z59">
+        <v>45</v>
+      </c>
+      <c r="AB59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <v>15</v>
+      </c>
+      <c r="Y60">
+        <v>29</v>
+      </c>
+      <c r="Z60">
+        <v>46</v>
+      </c>
+      <c r="AB60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <v>16</v>
+      </c>
+      <c r="Y61">
+        <v>30</v>
+      </c>
+      <c r="Z61">
+        <v>47</v>
+      </c>
+      <c r="AB61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O62" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y62">
+        <v>31</v>
+      </c>
+      <c r="Z62">
+        <v>48</v>
+      </c>
+      <c r="AB62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <v>17</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z63">
+        <v>49</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <v>18</v>
+      </c>
+      <c r="Y64">
+        <v>32</v>
+      </c>
+      <c r="Z64">
+        <v>50</v>
+      </c>
+      <c r="AB64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>19</v>
+      </c>
+      <c r="Y65">
+        <v>33</v>
+      </c>
+      <c r="Z65">
+        <v>51</v>
+      </c>
+      <c r="AB65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66">
+        <v>52</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O67" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y67">
+        <v>34</v>
+      </c>
+      <c r="Z67">
+        <v>53</v>
+      </c>
+      <c r="AB67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>21</v>
+      </c>
+      <c r="Y68">
+        <v>35</v>
+      </c>
+      <c r="Z68">
+        <v>54</v>
+      </c>
+      <c r="AB68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>22</v>
+      </c>
+      <c r="Y69">
+        <v>36</v>
+      </c>
+      <c r="Z69">
+        <v>55</v>
+      </c>
+      <c r="AB69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>23</v>
+      </c>
+      <c r="Y70">
+        <v>37</v>
+      </c>
+      <c r="Z70">
+        <v>56</v>
+      </c>
+      <c r="AB70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>24</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z71">
+        <v>57</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>25</v>
+      </c>
+      <c r="Y72">
+        <v>38</v>
+      </c>
+      <c r="Z72">
+        <v>58</v>
+      </c>
+      <c r="AB72">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O73" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y73">
+        <v>39</v>
+      </c>
+      <c r="Z73">
+        <v>59</v>
+      </c>
+      <c r="AB73">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O74" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y74">
+        <v>40</v>
+      </c>
+      <c r="Z74">
+        <v>60</v>
+      </c>
+      <c r="AB74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O75" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y75">
+        <v>41</v>
+      </c>
+      <c r="Z75">
+        <v>61</v>
+      </c>
+      <c r="AB75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O76" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76">
+        <v>62</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O77" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y77">
+        <v>42</v>
+      </c>
+      <c r="Z77">
+        <v>63</v>
+      </c>
+      <c r="AB77">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O78" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>64</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O79" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y79">
+        <v>43</v>
+      </c>
+      <c r="Z79">
+        <v>65</v>
+      </c>
+      <c r="AB79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O80" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y80">
+        <v>44</v>
+      </c>
+      <c r="Z80">
+        <v>66</v>
+      </c>
+      <c r="AB80">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <v>26</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>67</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <v>27</v>
+      </c>
+      <c r="Y82">
+        <v>45</v>
+      </c>
+      <c r="Z82">
+        <v>68</v>
+      </c>
+      <c r="AB82">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <v>28</v>
+      </c>
+      <c r="Y83">
+        <v>46</v>
+      </c>
+      <c r="Z83">
+        <v>69</v>
+      </c>
+      <c r="AB83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>29</v>
+      </c>
+      <c r="Y84">
+        <v>47</v>
+      </c>
+      <c r="Z84">
+        <v>70</v>
+      </c>
+      <c r="AB84">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <v>30</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z85">
+        <v>71</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <v>31</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>72</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O87" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z87">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>32</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <v>33</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O90" t="str">
+        <v>X</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <v>34</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O92">
+        <v>35</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O93">
+        <v>36</v>
+      </c>
+      <c r="Y93">
+        <v>48</v>
+      </c>
+      <c r="Z93">
+        <v>79</v>
+      </c>
+      <c r="AB93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O94">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O95" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="96" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="O96">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O99">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O100" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O101">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O102" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O103">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O104">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O105" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O107">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O108">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O109" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O110" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O111" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O112" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O113" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O114" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O115" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O116" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O117">
         <v>48</v>
       </c>
     </row>
@@ -1324,5 +2748,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Momo-FillNonX.xlsx
+++ b/Momo-FillNonX.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD4AC4-4A24-417F-91DD-CD297ECEBF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85277748-9810-40E3-887F-F8DDEDEF6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7670ABE3-302C-455B-BF20-B006F3FAE6C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7670ABE3-302C-455B-BF20-B006F3FAE6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$5:$F$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -87,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +121,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009242"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000099"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +206,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,11 +241,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -189,13 +300,114 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
+    <cellStyle name="20% - Accent1 2" xfId="12" xr:uid="{7FDAB94F-38AC-412B-A60E-D0F47188B6FB}"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{DAC6F48D-BC2F-4294-9A03-7B8D7A9D9928}"/>
+    <cellStyle name="Comment" xfId="9" xr:uid="{58F59449-F115-4EA3-89DD-8DCA4342C967}"/>
+    <cellStyle name="Explanatory Text 2" xfId="6" xr:uid="{05979ACF-6848-4976-9C71-A27D2326D499}"/>
+    <cellStyle name="Heading 1 2" xfId="5" xr:uid="{BCEA0C40-E78A-4CEF-B9AC-254F1B26AD57}"/>
+    <cellStyle name="Heading 2 2" xfId="11" xr:uid="{19088E9D-26A3-4EFD-B3B1-AAC93E0D89BC}"/>
+    <cellStyle name="Heading 3 2" xfId="10" xr:uid="{07F448D5-87FB-41D2-9C14-8BE733D0EC5E}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="8" xr:uid="{0C9D843D-1F39-4FCF-9910-2867C695A61F}"/>
+    <cellStyle name="Input 2" xfId="7" xr:uid="{A7E633F3-2CF9-4A20-B3DB-A932D174376F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{AAD550FE-22E1-4D84-B0DE-7818AB0074E9}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Biegert Standard" table="0" count="4" xr9:uid="{8298EBEA-8930-4495-AE67-59762960F1F6}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+    </tableStyle>
+    <tableStyle name="Biegert Standard A" pivot="0" count="4" xr9:uid="{B57BC1A2-48D0-4303-8D21-30452F780D07}">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5EEAB9-E28B-4013-B5B2-38620AA84DB0}">
   <dimension ref="A1:AM117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q13" workbookViewId="0">
       <selection activeCell="AG29" sqref="AF29:AG29"/>
     </sheetView>
   </sheetViews>
@@ -2752,4 +2964,112 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C0818A-8E34-48A6-B1C6-F577805BCF0E}">
+  <dimension ref="B4:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5:F7">_xlfn.WRAPCOLS(B5:B11,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5:J7">_xlfn.WRAPROWS(B5:B11,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>